--- a/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>2</v>

--- a/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>1</v>

--- a/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C3">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>6</v>
